--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$271</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -5248,11 +5248,11 @@
       </c>
       <c r="G20" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H20" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="13" t="n">
         <v>25</v>
@@ -5264,10 +5264,10 @@
         <v>29</v>
       </c>
       <c r="L20" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="14" t="n">
         <v>5</v>
@@ -5353,7 +5353,7 @@
         <v>6</v>
       </c>
       <c r="AI20" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="18" t="inlineStr">
         <is>
@@ -10905,18 +10905,18 @@
           <t>211915@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F44" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F44" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G44" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H44" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" s="13" t="n">
         <v>25</v>
@@ -10928,10 +10928,10 @@
         <v>29</v>
       </c>
       <c r="L44" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="14" t="n">
         <v>5</v>
@@ -11017,7 +11017,7 @@
         <v>6</v>
       </c>
       <c r="AI44" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="18" t="inlineStr">
         <is>
@@ -18700,11 +18700,11 @@
       </c>
       <c r="G77" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H77" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I77" s="13" t="n">
         <v>25</v>
@@ -18716,10 +18716,10 @@
         <v>29</v>
       </c>
       <c r="L77" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N77" s="14" t="n">
         <v>5</v>
@@ -18805,7 +18805,7 @@
         <v>6</v>
       </c>
       <c r="AI77" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ77" s="18" t="inlineStr">
         <is>
@@ -20345,18 +20345,18 @@
           <t>220766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F84" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G84" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H84" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>25</v>
@@ -20368,10 +20368,10 @@
         <v>29</v>
       </c>
       <c r="L84" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M84" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N84" s="14" t="n">
         <v>5</v>
@@ -20457,7 +20457,7 @@
         <v>6</v>
       </c>
       <c r="AI84" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ84" s="18" t="inlineStr">
         <is>
@@ -23420,11 +23420,11 @@
       </c>
       <c r="G97" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H97" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>25</v>
@@ -23436,10 +23436,10 @@
         <v>29</v>
       </c>
       <c r="L97" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N97" s="14" t="n">
         <v>5</v>
@@ -23525,7 +23525,7 @@
         <v>6</v>
       </c>
       <c r="AI97" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ97" s="18" t="inlineStr">
         <is>
@@ -25780,11 +25780,11 @@
       </c>
       <c r="G107" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H107" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I107" s="13" t="n">
         <v>25</v>
@@ -25796,10 +25796,10 @@
         <v>29</v>
       </c>
       <c r="L107" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M107" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N107" s="14" t="n">
         <v>5</v>
@@ -25885,7 +25885,7 @@
         <v>6</v>
       </c>
       <c r="AI107" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ107" s="18" t="inlineStr">
         <is>
@@ -27189,18 +27189,18 @@
           <t>221351@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F113" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F113" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G113" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H113" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I113" s="13" t="n">
         <v>25</v>
@@ -27212,10 +27212,10 @@
         <v>29</v>
       </c>
       <c r="L113" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M113" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N113" s="14" t="n">
         <v>5</v>
@@ -27301,7 +27301,7 @@
         <v>6</v>
       </c>
       <c r="AI113" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ113" s="18" t="inlineStr">
         <is>
@@ -27425,18 +27425,18 @@
           <t>221355@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F114" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F114" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G114" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H114" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I114" s="13" t="n">
         <v>25</v>
@@ -27448,10 +27448,10 @@
         <v>29</v>
       </c>
       <c r="L114" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M114" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N114" s="14" t="n">
         <v>5</v>
@@ -27537,7 +27537,7 @@
         <v>6</v>
       </c>
       <c r="AI114" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ114" s="18" t="inlineStr">
         <is>
@@ -28841,18 +28841,18 @@
           <t>221415@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F120" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F120" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G120" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H120" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>25</v>
@@ -28864,10 +28864,10 @@
         <v>29</v>
       </c>
       <c r="L120" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M120" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120" s="14" t="n">
         <v>5</v>
@@ -28953,7 +28953,7 @@
         <v>6</v>
       </c>
       <c r="AI120" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ120" s="18" t="inlineStr">
         <is>
@@ -29792,11 +29792,11 @@
       </c>
       <c r="G124" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H124" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I124" s="13" t="n">
         <v>25</v>
@@ -29808,10 +29808,10 @@
         <v>29</v>
       </c>
       <c r="L124" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M124" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N124" s="14" t="n">
         <v>5</v>
@@ -29897,7 +29897,7 @@
         <v>6</v>
       </c>
       <c r="AI124" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ124" s="18" t="inlineStr">
         <is>
@@ -30257,18 +30257,18 @@
           <t>221435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F126" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F126" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G126" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H126" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I126" s="13" t="n">
         <v>25</v>
@@ -30280,10 +30280,10 @@
         <v>29</v>
       </c>
       <c r="L126" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M126" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N126" s="14" t="n">
         <v>5</v>
@@ -30369,7 +30369,7 @@
         <v>6</v>
       </c>
       <c r="AI126" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ126" s="18" t="inlineStr">
         <is>
@@ -31916,11 +31916,11 @@
       </c>
       <c r="G133" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H133" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>25</v>
@@ -31932,10 +31932,10 @@
         <v>29</v>
       </c>
       <c r="L133" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M133" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N133" s="14" t="n">
         <v>5</v>
@@ -32021,7 +32021,7 @@
         <v>6</v>
       </c>
       <c r="AI133" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ133" s="18" t="inlineStr">
         <is>
@@ -32152,11 +32152,11 @@
       </c>
       <c r="G134" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H134" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>25</v>
@@ -32168,10 +32168,10 @@
         <v>29</v>
       </c>
       <c r="L134" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M134" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134" s="14" t="n">
         <v>5</v>
@@ -32257,7 +32257,7 @@
         <v>6</v>
       </c>
       <c r="AI134" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ134" s="18" t="inlineStr">
         <is>
@@ -33096,11 +33096,11 @@
       </c>
       <c r="G138" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H138" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I138" s="13" t="n">
         <v>25</v>
@@ -33112,10 +33112,10 @@
         <v>29</v>
       </c>
       <c r="L138" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M138" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N138" s="14" t="n">
         <v>5</v>
@@ -33201,7 +33201,7 @@
         <v>6</v>
       </c>
       <c r="AI138" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ138" s="18" t="inlineStr">
         <is>
@@ -33561,18 +33561,18 @@
           <t>221508@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F140" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F140" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G140" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H140" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I140" s="13" t="n">
         <v>25</v>
@@ -33584,10 +33584,10 @@
         <v>29</v>
       </c>
       <c r="L140" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M140" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N140" s="14" t="n">
         <v>5</v>
@@ -33673,7 +33673,7 @@
         <v>6</v>
       </c>
       <c r="AI140" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ140" s="18" t="inlineStr">
         <is>
@@ -35921,18 +35921,18 @@
           <t>221558@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F150" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F150" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G150" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H150" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I150" s="13" t="n">
         <v>25</v>
@@ -35944,10 +35944,10 @@
         <v>29</v>
       </c>
       <c r="L150" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N150" s="14" t="n">
         <v>5</v>
@@ -36033,7 +36033,7 @@
         <v>6</v>
       </c>
       <c r="AI150" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ150" s="18" t="inlineStr">
         <is>
@@ -36393,18 +36393,18 @@
           <t>221569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F152" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G152" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H152" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I152" s="13" t="n">
         <v>25</v>
@@ -36416,10 +36416,10 @@
         <v>29</v>
       </c>
       <c r="L152" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M152" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N152" s="14" t="n">
         <v>5</v>
@@ -36505,7 +36505,7 @@
         <v>6</v>
       </c>
       <c r="AI152" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ152" s="18" t="inlineStr">
         <is>
@@ -36629,18 +36629,18 @@
           <t>221574@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F153" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F153" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G153" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H153" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I153" s="13" t="n">
         <v>25</v>
@@ -36652,10 +36652,10 @@
         <v>29</v>
       </c>
       <c r="L153" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M153" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N153" s="14" t="n">
         <v>5</v>
@@ -36741,7 +36741,7 @@
         <v>6</v>
       </c>
       <c r="AI153" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ153" s="18" t="inlineStr">
         <is>
@@ -37101,18 +37101,18 @@
           <t>221579@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F155" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F155" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G155" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H155" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I155" s="13" t="n">
         <v>25</v>
@@ -37124,10 +37124,10 @@
         <v>29</v>
       </c>
       <c r="L155" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M155" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N155" s="14" t="n">
         <v>5</v>
@@ -37213,7 +37213,7 @@
         <v>6</v>
       </c>
       <c r="AI155" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ155" s="18" t="inlineStr">
         <is>
@@ -37809,18 +37809,18 @@
           <t>221587@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F158" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F158" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G158" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H158" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>25</v>
@@ -37832,10 +37832,10 @@
         <v>29</v>
       </c>
       <c r="L158" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N158" s="14" t="n">
         <v>5</v>
@@ -37921,7 +37921,7 @@
         <v>6</v>
       </c>
       <c r="AI158" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ158" s="18" t="inlineStr">
         <is>
@@ -38288,11 +38288,11 @@
       </c>
       <c r="G160" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H160" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I160" s="13" t="n">
         <v>25</v>
@@ -38304,10 +38304,10 @@
         <v>29</v>
       </c>
       <c r="L160" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M160" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N160" s="14" t="n">
         <v>5</v>
@@ -38393,7 +38393,7 @@
         <v>6</v>
       </c>
       <c r="AI160" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ160" s="18" t="inlineStr">
         <is>
@@ -38760,11 +38760,11 @@
       </c>
       <c r="G162" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H162" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I162" s="13" t="n">
         <v>25</v>
@@ -38776,10 +38776,10 @@
         <v>29</v>
       </c>
       <c r="L162" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M162" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N162" s="14" t="n">
         <v>5</v>
@@ -38865,7 +38865,7 @@
         <v>6</v>
       </c>
       <c r="AI162" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ162" s="18" t="inlineStr">
         <is>
@@ -38989,18 +38989,18 @@
           <t>221617@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F163" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F163" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G163" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H163" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I163" s="13" t="n">
         <v>25</v>
@@ -39012,10 +39012,10 @@
         <v>29</v>
       </c>
       <c r="L163" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M163" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N163" s="14" t="n">
         <v>5</v>
@@ -39101,7 +39101,7 @@
         <v>6</v>
       </c>
       <c r="AI163" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ163" s="18" t="inlineStr">
         <is>
@@ -39468,11 +39468,11 @@
       </c>
       <c r="G165" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H165" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I165" s="13" t="n">
         <v>25</v>
@@ -39484,10 +39484,10 @@
         <v>29</v>
       </c>
       <c r="L165" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M165" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N165" s="14" t="n">
         <v>5</v>
@@ -39573,7 +39573,7 @@
         <v>6</v>
       </c>
       <c r="AI165" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ165" s="18" t="inlineStr">
         <is>
@@ -39704,11 +39704,11 @@
       </c>
       <c r="G166" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H166" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I166" s="13" t="n">
         <v>25</v>
@@ -39720,10 +39720,10 @@
         <v>29</v>
       </c>
       <c r="L166" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M166" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N166" s="14" t="n">
         <v>5</v>
@@ -39809,7 +39809,7 @@
         <v>6</v>
       </c>
       <c r="AI166" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ166" s="18" t="inlineStr">
         <is>
@@ -44181,18 +44181,18 @@
           <t>221756@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F185" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G185" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H185" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I185" s="13" t="n">
         <v>25</v>
@@ -44204,10 +44204,10 @@
         <v>29</v>
       </c>
       <c r="L185" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M185" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N185" s="14" t="n">
         <v>5</v>
@@ -44293,7 +44293,7 @@
         <v>6</v>
       </c>
       <c r="AI185" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ185" s="18" t="inlineStr">
         <is>
@@ -44889,18 +44889,18 @@
           <t>221774@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F188" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F188" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G188" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H188" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I188" s="13" t="n">
         <v>25</v>
@@ -44912,10 +44912,10 @@
         <v>29</v>
       </c>
       <c r="L188" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M188" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N188" s="14" t="n">
         <v>5</v>
@@ -45001,7 +45001,7 @@
         <v>6</v>
       </c>
       <c r="AI188" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ188" s="18" t="inlineStr">
         <is>
@@ -47964,11 +47964,11 @@
       </c>
       <c r="G201" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H201" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I201" s="13" t="n">
         <v>25</v>
@@ -47980,10 +47980,10 @@
         <v>29</v>
       </c>
       <c r="L201" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M201" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N201" s="14" t="n">
         <v>5</v>
@@ -48069,7 +48069,7 @@
         <v>6</v>
       </c>
       <c r="AI201" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ201" s="18" t="inlineStr">
         <is>
@@ -51733,18 +51733,18 @@
           <t>221938@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F217" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G217" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H217" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I217" s="13" t="n">
         <v>25</v>
@@ -51756,10 +51756,10 @@
         <v>29</v>
       </c>
       <c r="L217" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M217" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N217" s="14" t="n">
         <v>5</v>
@@ -51845,7 +51845,7 @@
         <v>6</v>
       </c>
       <c r="AI217" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ217" s="18" t="inlineStr">
         <is>
@@ -53628,11 +53628,11 @@
       </c>
       <c r="G225" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H225" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I225" s="13" t="n">
         <v>25</v>
@@ -53644,10 +53644,10 @@
         <v>29</v>
       </c>
       <c r="L225" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M225" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N225" s="14" t="n">
         <v>5</v>
@@ -53733,7 +53733,7 @@
         <v>6</v>
       </c>
       <c r="AI225" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ225" s="18" t="inlineStr">
         <is>
@@ -54329,18 +54329,18 @@
           <t>221996@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F228" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F228" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G228" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H228" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I228" s="13" t="n">
         <v>25</v>
@@ -54352,10 +54352,10 @@
         <v>29</v>
       </c>
       <c r="L228" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M228" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N228" s="14" t="n">
         <v>5</v>
@@ -54441,7 +54441,7 @@
         <v>6</v>
       </c>
       <c r="AI228" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ228" s="18" t="inlineStr">
         <is>
@@ -55516,11 +55516,11 @@
       </c>
       <c r="G233" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H233" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I233" s="13" t="n">
         <v>25</v>
@@ -55532,10 +55532,10 @@
         <v>29</v>
       </c>
       <c r="L233" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M233" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233" s="14" t="n">
         <v>5</v>
@@ -55621,7 +55621,7 @@
         <v>6</v>
       </c>
       <c r="AI233" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ233" s="18" t="inlineStr">
         <is>
@@ -60215,7 +60215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K239"/>
+  <dimension ref="A1:K271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -73742,8 +73742,1832 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>221355</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>لمى ابكر سعيد جبرين محمد</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>221355@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>10:17:40</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>221606</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>راوية الطاهر عبدالله ناصر</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>221606@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>10:17:49</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>221774</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>يدجوك جيمس كوانقو اكوك</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>221774@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>10:17:50</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>221415</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>داليا عبد العزيز مبروك عبد العزيز بكار</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>221415@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>10:17:51</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>221996</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>نياقوط فال توت دوير</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>221996@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>10:17:53</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>221508</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>هاله عادل محمد احمد على</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>221508@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>10:17:54</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>221558</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>محمد عادل عوض باحاج</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>221558@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>10:17:58</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>221966</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>ساكى جوزيف اليساما زونقبيتى</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>221966@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>10:18:08</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>221579</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>لينا مكرم محمد يسن</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>221579@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>10:18:10</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>210926</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>كوثر محمد المبارك يوسف</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>210926@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>10:18:15</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>221351</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ريان الطاهر عبد الله ناصر</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>221351@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>10:18:22</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>220766</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>ميار بنت خالد بن محمد الشيخ</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>220766@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>10:18:27</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>221013</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>قاسم مفلح الرفاعى</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>221013@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>10:18:30</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>221435</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>احمد سامى عثمان الدى</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>221435@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>10:18:33</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>220370</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>اغيد مرزوق الرفاعى</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>220370@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>10:18:37</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>211915</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>ابايزيد عبد الله سعيد ابو رصاص</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>211915@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>10:18:44</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>221756</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ماريا صالح حسن مثنى محمد</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>221756@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>10:18:47</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>221484</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>نمارق عثمان حسن محمد نصر</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>221484@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>10:18:53</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>221432</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>راويه ادريس جمعه جاسر</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>221432@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>10:18:58</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>221506</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>فاطمه احمد اسماعيل الناجي</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>221506@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>10:43:22</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>221938</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>مانويلا ناكوتا مارينو لوكالى</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>221938@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>10:43:24</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>221574</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>عمر براء رجب</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>221574@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>10:43:26</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>221863</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>ميسم ايمن زيدان</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>221863@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>10:43:27</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>221587</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>ليم عثمان السر الشمباتي</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>221587@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>10:43:29</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>221617</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>محمد رياض جمال خشفه</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>221617@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>10:43:31</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>221569</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>هبه جعفر محمد شوكت</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>221569@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>10:43:33</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>221294</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>هاله يحى ابكر ابراهيم</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>221294@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>10:43:34</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>221494</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>حسن الصادق مصطفى الحاج</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>221494@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>10:43:35</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>221631</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>رغد الحاج حسين عبدالمتعال</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>221631@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>10:43:37</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>222004</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>احمد ايمن احمد بشير</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>222004@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>10:43:39</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>221599</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>سلمى عبد الرحمن عبيد موسى</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>221599@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>10:43:40</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>221629</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>ناصر عبدالحميد الحسيني</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>221629@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>10:43:42</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K239"/>
+  <autoFilter ref="A1:K271"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$332</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="G3" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H3" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>25</v>
@@ -1252,10 +1252,10 @@
         <v>29</v>
       </c>
       <c r="L3" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14" t="n">
         <v>5</v>
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="AI3" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="18" t="inlineStr">
         <is>
@@ -5720,11 +5720,11 @@
       </c>
       <c r="G22" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H22" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="13" t="n">
         <v>25</v>
@@ -5736,10 +5736,10 @@
         <v>29</v>
       </c>
       <c r="L22" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="14" t="n">
         <v>5</v>
@@ -5825,7 +5825,7 @@
         <v>6</v>
       </c>
       <c r="AI22" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="18" t="inlineStr">
         <is>
@@ -6185,18 +6185,18 @@
           <t>210998@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F24" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G24" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H24" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>25</v>
@@ -6208,10 +6208,10 @@
         <v>29</v>
       </c>
       <c r="L24" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="14" t="n">
         <v>5</v>
@@ -6297,7 +6297,7 @@
         <v>6</v>
       </c>
       <c r="AI24" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="18" t="inlineStr">
         <is>
@@ -11620,11 +11620,11 @@
       </c>
       <c r="G47" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H47" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I47" s="13" t="n">
         <v>25</v>
@@ -11636,10 +11636,10 @@
         <v>29</v>
       </c>
       <c r="L47" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N47" s="14" t="n">
         <v>5</v>
@@ -11725,7 +11725,7 @@
         <v>6</v>
       </c>
       <c r="AI47" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ47" s="18" t="inlineStr">
         <is>
@@ -12793,18 +12793,18 @@
           <t>212145@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F52" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F52" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G52" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H52" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>25</v>
@@ -12816,10 +12816,10 @@
         <v>29</v>
       </c>
       <c r="L52" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" s="14" t="n">
         <v>5</v>
@@ -12905,7 +12905,7 @@
         <v>6</v>
       </c>
       <c r="AI52" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ52" s="18" t="inlineStr">
         <is>
@@ -15389,18 +15389,18 @@
           <t>212318@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F63" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F63" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G63" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H63" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I63" s="13" t="n">
         <v>25</v>
@@ -15412,10 +15412,10 @@
         <v>29</v>
       </c>
       <c r="L63" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M63" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63" s="14" t="n">
         <v>5</v>
@@ -15501,7 +15501,7 @@
         <v>6</v>
       </c>
       <c r="AI63" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ63" s="18" t="inlineStr">
         <is>
@@ -15632,11 +15632,11 @@
       </c>
       <c r="G64" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H64" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>25</v>
@@ -15648,10 +15648,10 @@
         <v>29</v>
       </c>
       <c r="L64" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M64" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="14" t="n">
         <v>5</v>
@@ -15737,7 +15737,7 @@
         <v>6</v>
       </c>
       <c r="AI64" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ64" s="18" t="inlineStr">
         <is>
@@ -15861,18 +15861,18 @@
           <t>212386@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F65" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F65" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G65" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H65" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I65" s="13" t="n">
         <v>25</v>
@@ -15884,10 +15884,10 @@
         <v>29</v>
       </c>
       <c r="L65" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65" s="14" t="n">
         <v>5</v>
@@ -15973,7 +15973,7 @@
         <v>6</v>
       </c>
       <c r="AI65" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ65" s="18" t="inlineStr">
         <is>
@@ -17992,11 +17992,11 @@
       </c>
       <c r="G74" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H74" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>25</v>
@@ -18008,10 +18008,10 @@
         <v>29</v>
       </c>
       <c r="L74" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" s="14" t="n">
         <v>5</v>
@@ -18097,7 +18097,7 @@
         <v>6</v>
       </c>
       <c r="AI74" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ74" s="18" t="inlineStr">
         <is>
@@ -18221,18 +18221,18 @@
           <t>220304@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F75" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F75" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G75" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H75" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I75" s="13" t="n">
         <v>25</v>
@@ -18244,10 +18244,10 @@
         <v>29</v>
       </c>
       <c r="L75" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M75" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N75" s="14" t="n">
         <v>5</v>
@@ -18333,7 +18333,7 @@
         <v>6</v>
       </c>
       <c r="AI75" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ75" s="18" t="inlineStr">
         <is>
@@ -18936,11 +18936,11 @@
       </c>
       <c r="G78" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H78" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I78" s="13" t="n">
         <v>25</v>
@@ -18952,10 +18952,10 @@
         <v>29</v>
       </c>
       <c r="L78" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N78" s="14" t="n">
         <v>5</v>
@@ -19041,7 +19041,7 @@
         <v>6</v>
       </c>
       <c r="AI78" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ78" s="18" t="inlineStr">
         <is>
@@ -19172,11 +19172,11 @@
       </c>
       <c r="G79" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H79" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I79" s="13" t="n">
         <v>25</v>
@@ -19188,10 +19188,10 @@
         <v>29</v>
       </c>
       <c r="L79" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M79" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" s="14" t="n">
         <v>5</v>
@@ -19277,7 +19277,7 @@
         <v>6</v>
       </c>
       <c r="AI79" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ79" s="18" t="inlineStr">
         <is>
@@ -19873,18 +19873,18 @@
           <t>220675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F82" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F82" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G82" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H82" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I82" s="13" t="n">
         <v>25</v>
@@ -19896,10 +19896,10 @@
         <v>29</v>
       </c>
       <c r="L82" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N82" s="14" t="n">
         <v>5</v>
@@ -19985,7 +19985,7 @@
         <v>6</v>
       </c>
       <c r="AI82" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ82" s="18" t="inlineStr">
         <is>
@@ -20588,11 +20588,11 @@
       </c>
       <c r="G85" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H85" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>25</v>
@@ -20604,10 +20604,10 @@
         <v>29</v>
       </c>
       <c r="L85" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N85" s="14" t="n">
         <v>5</v>
@@ -20693,7 +20693,7 @@
         <v>6</v>
       </c>
       <c r="AI85" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ85" s="18" t="inlineStr">
         <is>
@@ -21296,11 +21296,11 @@
       </c>
       <c r="G88" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H88" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I88" s="13" t="n">
         <v>25</v>
@@ -21312,10 +21312,10 @@
         <v>29</v>
       </c>
       <c r="L88" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M88" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" s="14" t="n">
         <v>5</v>
@@ -21401,7 +21401,7 @@
         <v>6</v>
       </c>
       <c r="AI88" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ88" s="18" t="inlineStr">
         <is>
@@ -22476,11 +22476,11 @@
       </c>
       <c r="G93" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H93" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I93" s="13" t="n">
         <v>25</v>
@@ -22492,10 +22492,10 @@
         <v>29</v>
       </c>
       <c r="L93" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N93" s="14" t="n">
         <v>5</v>
@@ -22581,7 +22581,7 @@
         <v>6</v>
       </c>
       <c r="AI93" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ93" s="18" t="inlineStr">
         <is>
@@ -22941,18 +22941,18 @@
           <t>220990@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F95" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F95" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G95" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H95" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I95" s="13" t="n">
         <v>25</v>
@@ -22964,10 +22964,10 @@
         <v>29</v>
       </c>
       <c r="L95" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M95" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N95" s="14" t="n">
         <v>5</v>
@@ -23053,7 +23053,7 @@
         <v>6</v>
       </c>
       <c r="AI95" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ95" s="18" t="inlineStr">
         <is>
@@ -23656,11 +23656,11 @@
       </c>
       <c r="G98" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H98" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>25</v>
@@ -23672,10 +23672,10 @@
         <v>29</v>
       </c>
       <c r="L98" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M98" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" s="14" t="n">
         <v>5</v>
@@ -23761,7 +23761,7 @@
         <v>6</v>
       </c>
       <c r="AI98" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ98" s="18" t="inlineStr">
         <is>
@@ -23885,18 +23885,18 @@
           <t>221027@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F99" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F99" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G99" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H99" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I99" s="13" t="n">
         <v>25</v>
@@ -23908,10 +23908,10 @@
         <v>29</v>
       </c>
       <c r="L99" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N99" s="14" t="n">
         <v>5</v>
@@ -23997,7 +23997,7 @@
         <v>6</v>
       </c>
       <c r="AI99" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ99" s="18" t="inlineStr">
         <is>
@@ -24121,18 +24121,18 @@
           <t>221031@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F100" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F100" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G100" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H100" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I100" s="13" t="n">
         <v>25</v>
@@ -24144,10 +24144,10 @@
         <v>29</v>
       </c>
       <c r="L100" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M100" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N100" s="14" t="n">
         <v>5</v>
@@ -24233,7 +24233,7 @@
         <v>6</v>
       </c>
       <c r="AI100" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ100" s="18" t="inlineStr">
         <is>
@@ -26016,11 +26016,11 @@
       </c>
       <c r="G108" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H108" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>25</v>
@@ -26032,10 +26032,10 @@
         <v>29</v>
       </c>
       <c r="L108" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M108" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N108" s="14" t="n">
         <v>5</v>
@@ -26121,7 +26121,7 @@
         <v>6</v>
       </c>
       <c r="AI108" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ108" s="18" t="inlineStr">
         <is>
@@ -26717,18 +26717,18 @@
           <t>221324@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F111" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F111" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G111" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H111" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I111" s="13" t="n">
         <v>25</v>
@@ -26740,10 +26740,10 @@
         <v>29</v>
       </c>
       <c r="L111" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M111" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N111" s="14" t="n">
         <v>5</v>
@@ -26829,7 +26829,7 @@
         <v>6</v>
       </c>
       <c r="AI111" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ111" s="18" t="inlineStr">
         <is>
@@ -27661,18 +27661,18 @@
           <t>221357@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F115" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F115" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G115" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H115" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I115" s="13" t="n">
         <v>25</v>
@@ -27684,10 +27684,10 @@
         <v>29</v>
       </c>
       <c r="L115" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M115" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N115" s="14" t="n">
         <v>5</v>
@@ -27773,7 +27773,7 @@
         <v>6</v>
       </c>
       <c r="AI115" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ115" s="18" t="inlineStr">
         <is>
@@ -28133,18 +28133,18 @@
           <t>221375@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F117" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F117" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G117" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H117" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I117" s="13" t="n">
         <v>25</v>
@@ -28156,10 +28156,10 @@
         <v>29</v>
       </c>
       <c r="L117" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M117" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N117" s="14" t="n">
         <v>5</v>
@@ -28245,7 +28245,7 @@
         <v>6</v>
       </c>
       <c r="AI117" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ117" s="18" t="inlineStr">
         <is>
@@ -28369,18 +28369,18 @@
           <t>221404@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F118" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F118" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G118" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H118" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I118" s="13" t="n">
         <v>25</v>
@@ -28392,10 +28392,10 @@
         <v>29</v>
       </c>
       <c r="L118" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M118" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N118" s="14" t="n">
         <v>5</v>
@@ -28481,7 +28481,7 @@
         <v>6</v>
       </c>
       <c r="AI118" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ118" s="18" t="inlineStr">
         <is>
@@ -33804,11 +33804,11 @@
       </c>
       <c r="G141" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H141" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I141" s="13" t="n">
         <v>25</v>
@@ -33820,10 +33820,10 @@
         <v>29</v>
       </c>
       <c r="L141" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M141" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N141" s="14" t="n">
         <v>5</v>
@@ -33909,7 +33909,7 @@
         <v>6</v>
       </c>
       <c r="AI141" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ141" s="18" t="inlineStr">
         <is>
@@ -34269,18 +34269,18 @@
           <t>221522@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F143" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F143" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G143" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H143" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I143" s="13" t="n">
         <v>25</v>
@@ -34292,10 +34292,10 @@
         <v>29</v>
       </c>
       <c r="L143" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M143" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N143" s="14" t="n">
         <v>5</v>
@@ -34381,7 +34381,7 @@
         <v>6</v>
       </c>
       <c r="AI143" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ143" s="18" t="inlineStr">
         <is>
@@ -34505,18 +34505,18 @@
           <t>221523@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F144" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F144" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G144" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H144" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>25</v>
@@ -34528,10 +34528,10 @@
         <v>29</v>
       </c>
       <c r="L144" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N144" s="14" t="n">
         <v>5</v>
@@ -34617,7 +34617,7 @@
         <v>6</v>
       </c>
       <c r="AI144" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ144" s="18" t="inlineStr">
         <is>
@@ -34977,18 +34977,18 @@
           <t>221536@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F146" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G146" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H146" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>25</v>
@@ -35000,10 +35000,10 @@
         <v>29</v>
       </c>
       <c r="L146" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M146" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N146" s="14" t="n">
         <v>5</v>
@@ -35089,7 +35089,7 @@
         <v>6</v>
       </c>
       <c r="AI146" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ146" s="18" t="inlineStr">
         <is>
@@ -35220,11 +35220,11 @@
       </c>
       <c r="G147" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H147" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I147" s="13" t="n">
         <v>25</v>
@@ -35236,10 +35236,10 @@
         <v>29</v>
       </c>
       <c r="L147" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M147" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N147" s="14" t="n">
         <v>5</v>
@@ -35325,7 +35325,7 @@
         <v>6</v>
       </c>
       <c r="AI147" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ147" s="18" t="inlineStr">
         <is>
@@ -35456,11 +35456,11 @@
       </c>
       <c r="G148" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H148" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I148" s="13" t="n">
         <v>25</v>
@@ -35472,10 +35472,10 @@
         <v>29</v>
       </c>
       <c r="L148" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M148" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N148" s="14" t="n">
         <v>5</v>
@@ -35561,7 +35561,7 @@
         <v>6</v>
       </c>
       <c r="AI148" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ148" s="18" t="inlineStr">
         <is>
@@ -36872,11 +36872,11 @@
       </c>
       <c r="G154" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H154" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I154" s="13" t="n">
         <v>25</v>
@@ -36888,10 +36888,10 @@
         <v>29</v>
       </c>
       <c r="L154" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M154" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N154" s="14" t="n">
         <v>5</v>
@@ -36977,7 +36977,7 @@
         <v>6</v>
       </c>
       <c r="AI154" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ154" s="18" t="inlineStr">
         <is>
@@ -37573,18 +37573,18 @@
           <t>221584@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F157" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F157" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G157" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H157" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I157" s="13" t="n">
         <v>25</v>
@@ -37596,10 +37596,10 @@
         <v>29</v>
       </c>
       <c r="L157" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N157" s="14" t="n">
         <v>5</v>
@@ -37685,7 +37685,7 @@
         <v>6</v>
       </c>
       <c r="AI157" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ157" s="18" t="inlineStr">
         <is>
@@ -38052,11 +38052,11 @@
       </c>
       <c r="G159" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H159" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I159" s="13" t="n">
         <v>25</v>
@@ -38068,10 +38068,10 @@
         <v>29</v>
       </c>
       <c r="L159" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M159" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N159" s="14" t="n">
         <v>5</v>
@@ -38157,7 +38157,7 @@
         <v>6</v>
       </c>
       <c r="AI159" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ159" s="18" t="inlineStr">
         <is>
@@ -42064,11 +42064,11 @@
       </c>
       <c r="G176" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H176" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I176" s="13" t="n">
         <v>25</v>
@@ -42080,10 +42080,10 @@
         <v>29</v>
       </c>
       <c r="L176" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M176" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176" s="14" t="n">
         <v>5</v>
@@ -42169,7 +42169,7 @@
         <v>6</v>
       </c>
       <c r="AI176" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ176" s="18" t="inlineStr">
         <is>
@@ -42772,11 +42772,11 @@
       </c>
       <c r="G179" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H179" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I179" s="13" t="n">
         <v>25</v>
@@ -42788,10 +42788,10 @@
         <v>29</v>
       </c>
       <c r="L179" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M179" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N179" s="14" t="n">
         <v>5</v>
@@ -42877,7 +42877,7 @@
         <v>6</v>
       </c>
       <c r="AI179" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ179" s="18" t="inlineStr">
         <is>
@@ -43237,18 +43237,18 @@
           <t>221720@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F181" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F181" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G181" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H181" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I181" s="13" t="n">
         <v>25</v>
@@ -43260,10 +43260,10 @@
         <v>29</v>
       </c>
       <c r="L181" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N181" s="14" t="n">
         <v>5</v>
@@ -43349,7 +43349,7 @@
         <v>6</v>
       </c>
       <c r="AI181" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ181" s="18" t="inlineStr">
         <is>
@@ -43952,11 +43952,11 @@
       </c>
       <c r="G184" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H184" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I184" s="13" t="n">
         <v>25</v>
@@ -43968,10 +43968,10 @@
         <v>29</v>
       </c>
       <c r="L184" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M184" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N184" s="14" t="n">
         <v>5</v>
@@ -44057,7 +44057,7 @@
         <v>6</v>
       </c>
       <c r="AI184" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ184" s="18" t="inlineStr">
         <is>
@@ -44417,18 +44417,18 @@
           <t>221764@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F186" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F186" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G186" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H186" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I186" s="13" t="n">
         <v>25</v>
@@ -44440,10 +44440,10 @@
         <v>29</v>
       </c>
       <c r="L186" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M186" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N186" s="14" t="n">
         <v>5</v>
@@ -44529,7 +44529,7 @@
         <v>6</v>
       </c>
       <c r="AI186" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ186" s="18" t="inlineStr">
         <is>
@@ -45361,18 +45361,18 @@
           <t>221799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F190" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G190" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H190" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I190" s="13" t="n">
         <v>25</v>
@@ -45384,10 +45384,10 @@
         <v>29</v>
       </c>
       <c r="L190" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M190" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N190" s="14" t="n">
         <v>5</v>
@@ -45473,7 +45473,7 @@
         <v>6</v>
       </c>
       <c r="AI190" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ190" s="18" t="inlineStr">
         <is>
@@ -45604,11 +45604,11 @@
       </c>
       <c r="G191" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H191" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I191" s="13" t="n">
         <v>25</v>
@@ -45620,10 +45620,10 @@
         <v>29</v>
       </c>
       <c r="L191" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M191" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N191" s="14" t="n">
         <v>5</v>
@@ -45709,7 +45709,7 @@
         <v>6</v>
       </c>
       <c r="AI191" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ191" s="18" t="inlineStr">
         <is>
@@ -46076,11 +46076,11 @@
       </c>
       <c r="G193" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H193" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I193" s="13" t="n">
         <v>25</v>
@@ -46092,10 +46092,10 @@
         <v>29</v>
       </c>
       <c r="L193" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M193" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N193" s="14" t="n">
         <v>5</v>
@@ -46181,7 +46181,7 @@
         <v>6</v>
       </c>
       <c r="AI193" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ193" s="18" t="inlineStr">
         <is>
@@ -46312,11 +46312,11 @@
       </c>
       <c r="G194" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H194" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I194" s="13" t="n">
         <v>25</v>
@@ -46328,10 +46328,10 @@
         <v>29</v>
       </c>
       <c r="L194" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M194" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N194" s="14" t="n">
         <v>5</v>
@@ -46417,7 +46417,7 @@
         <v>6</v>
       </c>
       <c r="AI194" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ194" s="18" t="inlineStr">
         <is>
@@ -46784,11 +46784,11 @@
       </c>
       <c r="G196" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H196" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I196" s="13" t="n">
         <v>25</v>
@@ -46800,10 +46800,10 @@
         <v>29</v>
       </c>
       <c r="L196" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M196" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N196" s="14" t="n">
         <v>5</v>
@@ -46889,7 +46889,7 @@
         <v>6</v>
       </c>
       <c r="AI196" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ196" s="18" t="inlineStr">
         <is>
@@ -47013,18 +47013,18 @@
           <t>221833@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F197" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F197" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G197" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H197" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I197" s="13" t="n">
         <v>25</v>
@@ -47036,10 +47036,10 @@
         <v>29</v>
       </c>
       <c r="L197" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M197" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N197" s="14" t="n">
         <v>5</v>
@@ -47125,7 +47125,7 @@
         <v>6</v>
       </c>
       <c r="AI197" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ197" s="18" t="inlineStr">
         <is>
@@ -47492,11 +47492,11 @@
       </c>
       <c r="G199" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H199" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I199" s="13" t="n">
         <v>25</v>
@@ -47508,10 +47508,10 @@
         <v>29</v>
       </c>
       <c r="L199" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M199" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N199" s="14" t="n">
         <v>5</v>
@@ -47597,7 +47597,7 @@
         <v>6</v>
       </c>
       <c r="AI199" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ199" s="18" t="inlineStr">
         <is>
@@ -47728,11 +47728,11 @@
       </c>
       <c r="G200" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H200" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I200" s="13" t="n">
         <v>25</v>
@@ -47744,10 +47744,10 @@
         <v>29</v>
       </c>
       <c r="L200" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M200" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200" s="14" t="n">
         <v>5</v>
@@ -47833,7 +47833,7 @@
         <v>6</v>
       </c>
       <c r="AI200" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ200" s="18" t="inlineStr">
         <is>
@@ -49845,18 +49845,18 @@
           <t>221904@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F209" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F209" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G209" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H209" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I209" s="13" t="n">
         <v>25</v>
@@ -49868,10 +49868,10 @@
         <v>29</v>
       </c>
       <c r="L209" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M209" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N209" s="14" t="n">
         <v>5</v>
@@ -49957,7 +49957,7 @@
         <v>6</v>
       </c>
       <c r="AI209" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ209" s="18" t="inlineStr">
         <is>
@@ -50324,11 +50324,11 @@
       </c>
       <c r="G211" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H211" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I211" s="13" t="n">
         <v>25</v>
@@ -50340,10 +50340,10 @@
         <v>29</v>
       </c>
       <c r="L211" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M211" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N211" s="14" t="n">
         <v>5</v>
@@ -50429,7 +50429,7 @@
         <v>6</v>
       </c>
       <c r="AI211" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ211" s="18" t="inlineStr">
         <is>
@@ -52212,11 +52212,11 @@
       </c>
       <c r="G219" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H219" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I219" s="13" t="n">
         <v>25</v>
@@ -52228,10 +52228,10 @@
         <v>29</v>
       </c>
       <c r="L219" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M219" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219" s="14" t="n">
         <v>5</v>
@@ -52317,7 +52317,7 @@
         <v>6</v>
       </c>
       <c r="AI219" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ219" s="18" t="inlineStr">
         <is>
@@ -54093,18 +54093,18 @@
           <t>221982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F227" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G227" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H227" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I227" s="13" t="n">
         <v>25</v>
@@ -54116,10 +54116,10 @@
         <v>29</v>
       </c>
       <c r="L227" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M227" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N227" s="14" t="n">
         <v>5</v>
@@ -54205,7 +54205,7 @@
         <v>6</v>
       </c>
       <c r="AI227" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ227" s="18" t="inlineStr">
         <is>
@@ -54565,18 +54565,18 @@
           <t>221997@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F229" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F229" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G229" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H229" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I229" s="13" t="n">
         <v>25</v>
@@ -54588,10 +54588,10 @@
         <v>29</v>
       </c>
       <c r="L229" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M229" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N229" s="14" t="n">
         <v>5</v>
@@ -54677,7 +54677,7 @@
         <v>6</v>
       </c>
       <c r="AI229" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ229" s="18" t="inlineStr">
         <is>
@@ -55037,18 +55037,18 @@
           <t>222002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F231" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F231" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G231" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H231" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I231" s="13" t="n">
         <v>25</v>
@@ -55060,10 +55060,10 @@
         <v>29</v>
       </c>
       <c r="L231" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M231" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N231" s="14" t="n">
         <v>5</v>
@@ -55149,7 +55149,7 @@
         <v>6</v>
       </c>
       <c r="AI231" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ231" s="18" t="inlineStr">
         <is>
@@ -55280,11 +55280,11 @@
       </c>
       <c r="G232" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H232" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I232" s="13" t="n">
         <v>25</v>
@@ -55296,10 +55296,10 @@
         <v>29</v>
       </c>
       <c r="L232" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M232" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N232" s="14" t="n">
         <v>5</v>
@@ -55385,7 +55385,7 @@
         <v>6</v>
       </c>
       <c r="AI232" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ232" s="18" t="inlineStr">
         <is>
@@ -56224,11 +56224,11 @@
       </c>
       <c r="G236" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H236" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I236" s="13" t="n">
         <v>25</v>
@@ -56240,10 +56240,10 @@
         <v>29</v>
       </c>
       <c r="L236" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M236" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N236" s="14" t="n">
         <v>5</v>
@@ -56329,7 +56329,7 @@
         <v>6</v>
       </c>
       <c r="AI236" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ236" s="18" t="inlineStr">
         <is>
@@ -56696,11 +56696,11 @@
       </c>
       <c r="G238" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H238" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I238" s="13" t="n">
         <v>25</v>
@@ -56712,10 +56712,10 @@
         <v>29</v>
       </c>
       <c r="L238" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M238" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N238" s="14" t="n">
         <v>5</v>
@@ -56801,7 +56801,7 @@
         <v>6</v>
       </c>
       <c r="AI238" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ238" s="18" t="inlineStr">
         <is>
@@ -57168,11 +57168,11 @@
       </c>
       <c r="G240" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H240" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I240" s="13" t="n">
         <v>25</v>
@@ -57184,10 +57184,10 @@
         <v>29</v>
       </c>
       <c r="L240" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M240" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N240" s="14" t="n">
         <v>5</v>
@@ -57273,7 +57273,7 @@
         <v>6</v>
       </c>
       <c r="AI240" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ240" s="18" t="inlineStr">
         <is>
@@ -57404,11 +57404,11 @@
       </c>
       <c r="G241" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H241" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I241" s="13" t="n">
         <v>25</v>
@@ -57420,10 +57420,10 @@
         <v>29</v>
       </c>
       <c r="L241" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M241" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N241" s="14" t="n">
         <v>5</v>
@@ -57509,7 +57509,7 @@
         <v>6</v>
       </c>
       <c r="AI241" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ241" s="18" t="inlineStr">
         <is>
@@ -57633,18 +57633,18 @@
           <t>222036@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F242" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F242" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G242" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H242" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I242" s="13" t="n">
         <v>25</v>
@@ -57656,10 +57656,10 @@
         <v>29</v>
       </c>
       <c r="L242" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M242" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N242" s="14" t="n">
         <v>5</v>
@@ -57745,7 +57745,7 @@
         <v>6</v>
       </c>
       <c r="AI242" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ242" s="18" t="inlineStr">
         <is>
@@ -58584,11 +58584,11 @@
       </c>
       <c r="G246" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H246" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I246" s="13" t="n">
         <v>25</v>
@@ -58600,10 +58600,10 @@
         <v>29</v>
       </c>
       <c r="L246" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M246" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N246" s="14" t="n">
         <v>5</v>
@@ -58689,7 +58689,7 @@
         <v>6</v>
       </c>
       <c r="AI246" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ246" s="18" t="inlineStr">
         <is>
@@ -59049,18 +59049,18 @@
           <t>222076@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F248" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G248" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H248" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I248" s="13" t="n">
         <v>25</v>
@@ -59072,10 +59072,10 @@
         <v>29</v>
       </c>
       <c r="L248" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M248" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N248" s="14" t="n">
         <v>5</v>
@@ -59161,7 +59161,7 @@
         <v>6</v>
       </c>
       <c r="AI248" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ248" s="18" t="inlineStr">
         <is>
@@ -60215,7 +60215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K271"/>
+  <dimension ref="A1:K332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -75566,8 +75566,3485 @@
         </is>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>221027</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>شهد اياد مصطفى الشويات</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>221027@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>10:49:34</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>221546</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>محمدزين ابوبكر محمد زين احمد</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>221546@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>10:50:39</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>221802</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>بشاير ابوبكر على عيسى ابراهيم</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>221802@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>10:51:37</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>221699</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>بيسان محمود محمد عبد الكريم</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>221699@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>10:51:57</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>222002</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>يوسف عثمان باباغانا</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>222002@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>10:52:24</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>222036</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>عثمان على محمد خالد</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>222036@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>10:52:31</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>212543</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>زينب سيف الدين محمد ادم</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>212543@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>10:53:14</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>221510</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>أماني عبدالله محمد صالح عبدربه</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>221510@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>10:53:59</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>221720</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>شهاب عبده محمد الحصماني</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>221720@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>10:54:07</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>221375</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>محمد عمران محمد الهندى</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>221375@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>10:54:47</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>221944</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>ضحى عمر سيف الدين محمد</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>221944@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>10:55:31</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>221818</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>جيهان محارب الشيخ الكيلاني</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>221818@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>10:55:51</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>221810</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>رهان محارب الشيخ الكيلاني</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>221810@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>10:55:55</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>221404</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>محمد يزن محمد مازن ماوردى</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>221404@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>10:56:02</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>220304</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>احمد الكامل محمد عبدون عثمان</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>220304@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>10:56:20</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>220967</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>لارا حربي عبدالله الزيادات</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>220967@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>10:56:33</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>221842</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>الشيماء خلف الله عوض الجيد احمد</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>221842@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>10:56:44</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>210998</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>زينب نادر عوض السيد عبد القادر</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>210998@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>10:56:56</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>221764</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>محمد نور ديب محمود الحمامي</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>221764@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>10:57:25</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>220675</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>محمد بدرالدين عبد العال عبد العال صبح</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>220675@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>10:57:58</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>221850</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>مؤمن محمد عبد الله محمد</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>221850@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>10:58:10</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>221577</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>ريل امير عوض محمدين</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>221577@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>10:58:18</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>220811</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>يعقوب يوسف يوسف</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>220811@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>10:58:58</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>221982</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>امنويل اكوى اقوتو كوت</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>221982@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>10:59:20</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>212322</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>مهند حافظ عابدين الفاضل</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>212322@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>10:59:41</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>221584</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>عزه بنت محمد بن عوض الصمداني</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>221584@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>11:00:01</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>212386</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>لويد اليكس موجا</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>212386@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>11:00:18</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>220428</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>بسمله محمد عبد الحميد محمد</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>220428@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>11:00:33</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>222076</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>ابرار عبد الماجد عبد العزيز عثمان</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>222076@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>11:01:01</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>212318</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>مازن مصدق يس عبد اللطيف</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>212318@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>11:01:22</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>221022</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>شهد عبدالعظيم فرج بابكر</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>221022@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>11:03:10</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>210935</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>يعقوب سليمان يعقوب يحى</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>210935@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>11:03:16</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>222028</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>هاجر عبد الحفيظ سيد صالح</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>222028@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>11:03:23</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>211970</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>محمد اسامه المحمد</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>211970@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>11:03:28</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>221536</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>عبده دفع الله سليمان كوكو</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>221536@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>11:10:17</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>222032</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>احمد شوقى عبد الرحيم طه</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>222032@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>11:10:51</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>221997</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>خالد مبارك احمد عثمان</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>221997@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>11:11:38</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>221522</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>آدم محمد احمد البديرات</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>221522@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>11:11:45</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>221682</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>سرين حاج صدوق</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>221682@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>11:11:51</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>220444</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>جنه تامر محمد يوسف</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>220444@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>11:12:00</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>222063</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>محمد مصطفى حامد التوم</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>222063@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>11:12:06</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>200540</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>محمد سعيد ابراهيم عواد درويش</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>200540@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>11:12:39</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>221523</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>سمر جيت كور</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>221523@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>11:12:46</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>212145</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>سميه لاوان شايبو</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>212145@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>11:12:51</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>221911</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>دينق ضيو نقوك اكوانق</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>221911@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>11:12:56</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>222035</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>علا عبد الوهاب خليل محمود</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>222035@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>11:14:33</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>221833</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>صفا محمود صايل صايل</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>221833@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>11:14:40</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>221589</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>أوينق استيفن أجوك مو</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>221589@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>11:14:45</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>221826</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>بخيتة اوت قور كول</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>221826@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>11:14:53</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>221755</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>سعدية عاشق</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>221755@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>11:15:00</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>221904</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>عائشه نور شيهو</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>221904@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>11:15:07</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>221539</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>تحريم شوكات مالك</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>221539@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>11:15:30</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>220877</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>محمد نور عبد المنعم كرنازي</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>220877@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>11:15:34</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>222003</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>اسراء بدر الدين جعفر عثمان</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>222003@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>11:15:38</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>221799</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>سعاد عبد الماجد احمد عيسى</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>221799@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>11:15:43</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>221324</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>مجد ذوقان خليل قيشاوي</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>221324@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>11:15:48</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>221357</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>عبد الله محمد نصر قناوى</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>221357@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>11:16:00</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>222026</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>عثمان موسى محمد ادم</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>222026@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>11:16:06</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>221307</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>دعاء عاصم على العوض</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>221307@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>11:16:10</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>220990</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>جاد زياد سلوم</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>220990@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>11:16:17</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>221031</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>امنيه عبدالله عبد اللطيف محمد</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>221031@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>11:16:21</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K271"/>
+  <autoFilter ref="A1:K332"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>